--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.6635192335631</v>
+        <v>428.8801303293108</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.7493354705671</v>
+        <v>586.8127151725473</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.357118190586</v>
+        <v>530.8081332332969</v>
       </c>
       <c r="AD2" t="n">
-        <v>301663.5192335632</v>
+        <v>428880.1303293108</v>
       </c>
       <c r="AE2" t="n">
-        <v>412749.3354705671</v>
+        <v>586812.7151725473</v>
       </c>
       <c r="AF2" t="n">
         <v>6.352528755345003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>373357.118190586</v>
+        <v>530808.1332332969</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.4010984433403</v>
+        <v>345.2189913391225</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.5050974561716</v>
+        <v>472.3438539372077</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.1986460499435</v>
+        <v>427.2640194562024</v>
       </c>
       <c r="AD3" t="n">
-        <v>247401.0984433403</v>
+        <v>345218.9913391225</v>
       </c>
       <c r="AE3" t="n">
-        <v>338505.0974561716</v>
+        <v>472343.8539372077</v>
       </c>
       <c r="AF3" t="n">
         <v>7.694007902196761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>306198.6460499435</v>
+        <v>427264.0194562025</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.697275308819</v>
+        <v>331.4810027858202</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.7549220735207</v>
+        <v>453.5469319212993</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.2379610897704</v>
+        <v>410.2610492958467</v>
       </c>
       <c r="AD4" t="n">
-        <v>233697.275308819</v>
+        <v>331481.0027858202</v>
       </c>
       <c r="AE4" t="n">
-        <v>319754.9220735207</v>
+        <v>453546.9319212994</v>
       </c>
       <c r="AF4" t="n">
         <v>8.175199811104318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>289237.9610897704</v>
+        <v>410261.0492958467</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.6987387453366</v>
+        <v>319.5497860300421</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.3379950092979</v>
+        <v>437.2221147879097</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.38784250325</v>
+        <v>395.4942497976429</v>
       </c>
       <c r="AD5" t="n">
-        <v>221698.7387453366</v>
+        <v>319549.786030042</v>
       </c>
       <c r="AE5" t="n">
-        <v>303337.9950092979</v>
+        <v>437222.1147879097</v>
       </c>
       <c r="AF5" t="n">
         <v>8.449004275303598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>274387.84250325</v>
+        <v>395494.2497976429</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.518009506888</v>
+        <v>308.5473811323214</v>
       </c>
       <c r="AB6" t="n">
-        <v>301.7224691751557</v>
+        <v>422.1681390150015</v>
       </c>
       <c r="AC6" t="n">
-        <v>272.926500187313</v>
+        <v>381.8770043441134</v>
       </c>
       <c r="AD6" t="n">
-        <v>220518.009506888</v>
+        <v>308547.3811323214</v>
       </c>
       <c r="AE6" t="n">
-        <v>301722.4691751556</v>
+        <v>422168.1390150015</v>
       </c>
       <c r="AF6" t="n">
         <v>8.597990547700829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>272926.500187313</v>
+        <v>381877.0043441134</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>220.0048124321683</v>
+        <v>308.0341840576017</v>
       </c>
       <c r="AB7" t="n">
-        <v>301.0202902968674</v>
+        <v>421.465960136713</v>
       </c>
       <c r="AC7" t="n">
-        <v>272.2913362756542</v>
+        <v>381.2418404324545</v>
       </c>
       <c r="AD7" t="n">
-        <v>220004.8124321683</v>
+        <v>308034.1840576017</v>
       </c>
       <c r="AE7" t="n">
-        <v>301020.2902968674</v>
+        <v>421465.960136713</v>
       </c>
       <c r="AF7" t="n">
         <v>8.657356032454578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>272291.3362756542</v>
+        <v>381241.8404324545</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>209.3659171189877</v>
+        <v>307.1827989849121</v>
       </c>
       <c r="AB8" t="n">
-        <v>286.4636843744451</v>
+        <v>420.3010575198005</v>
       </c>
       <c r="AC8" t="n">
-        <v>259.1239923921386</v>
+        <v>380.188114486349</v>
       </c>
       <c r="AD8" t="n">
-        <v>209365.9171189877</v>
+        <v>307182.7989849121</v>
       </c>
       <c r="AE8" t="n">
-        <v>286463.6843744451</v>
+        <v>420301.0575198005</v>
       </c>
       <c r="AF8" t="n">
         <v>8.731547821014851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>259123.9923921385</v>
+        <v>380188.114486349</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>208.7225245348951</v>
+        <v>296.8192159680327</v>
       </c>
       <c r="AB9" t="n">
-        <v>285.5833662564126</v>
+        <v>406.1211460270916</v>
       </c>
       <c r="AC9" t="n">
-        <v>258.3276905997565</v>
+        <v>367.3615138448735</v>
       </c>
       <c r="AD9" t="n">
-        <v>208722.5245348951</v>
+        <v>296819.2159680327</v>
       </c>
       <c r="AE9" t="n">
-        <v>285583.3662564126</v>
+        <v>406121.1460270917</v>
       </c>
       <c r="AF9" t="n">
         <v>8.80881335548623e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH9" t="n">
-        <v>258327.6905997565</v>
+        <v>367361.5138448735</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>207.8384638224084</v>
+        <v>295.9351552555461</v>
       </c>
       <c r="AB10" t="n">
-        <v>284.3737553875829</v>
+        <v>404.9115351582614</v>
       </c>
       <c r="AC10" t="n">
-        <v>257.2335232945481</v>
+        <v>366.267346539665</v>
       </c>
       <c r="AD10" t="n">
-        <v>207838.4638224084</v>
+        <v>295935.1552555461</v>
       </c>
       <c r="AE10" t="n">
-        <v>284373.7553875829</v>
+        <v>404911.5351582614</v>
       </c>
       <c r="AF10" t="n">
         <v>8.888610210119696e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH10" t="n">
-        <v>257233.5232945481</v>
+        <v>366267.346539665</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>207.7251570255148</v>
+        <v>295.8218484586525</v>
       </c>
       <c r="AB11" t="n">
-        <v>284.2187240293301</v>
+        <v>404.7565038000085</v>
       </c>
       <c r="AC11" t="n">
-        <v>257.093287911539</v>
+        <v>366.1271111566558</v>
       </c>
       <c r="AD11" t="n">
-        <v>207725.1570255148</v>
+        <v>295821.8484586525</v>
       </c>
       <c r="AE11" t="n">
-        <v>284218.7240293301</v>
+        <v>404756.5038000086</v>
       </c>
       <c r="AF11" t="n">
         <v>8.895119319107926e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH11" t="n">
-        <v>257093.287911539</v>
+        <v>366127.1111566558</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>207.2064931239378</v>
+        <v>295.3031845570755</v>
       </c>
       <c r="AB12" t="n">
-        <v>283.5090651973564</v>
+        <v>404.0468449680344</v>
       </c>
       <c r="AC12" t="n">
-        <v>256.4513579224762</v>
+        <v>365.4851811675929</v>
       </c>
       <c r="AD12" t="n">
-        <v>207206.4931239378</v>
+        <v>295303.1845570755</v>
       </c>
       <c r="AE12" t="n">
-        <v>283509.0651973564</v>
+        <v>404046.8449680344</v>
       </c>
       <c r="AF12" t="n">
         <v>8.90283381864953e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>256451.3579224762</v>
+        <v>365485.1811675929</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>206.5176342269531</v>
+        <v>294.5128404336055</v>
       </c>
       <c r="AB13" t="n">
-        <v>282.5665380641926</v>
+        <v>402.9654612707809</v>
       </c>
       <c r="AC13" t="n">
-        <v>255.5987842560561</v>
+        <v>364.5070032126737</v>
       </c>
       <c r="AD13" t="n">
-        <v>206517.6342269531</v>
+        <v>294512.8404336055</v>
       </c>
       <c r="AE13" t="n">
-        <v>282566.5380641926</v>
+        <v>402965.4612707809</v>
       </c>
       <c r="AF13" t="n">
         <v>8.983534716198028e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>255598.7842560561</v>
+        <v>364507.0032126738</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>206.4130808774027</v>
+        <v>294.4082870840551</v>
       </c>
       <c r="AB14" t="n">
-        <v>282.4234835587697</v>
+        <v>402.8224067653578</v>
       </c>
       <c r="AC14" t="n">
-        <v>255.4693826718524</v>
+        <v>364.37760162847</v>
       </c>
       <c r="AD14" t="n">
-        <v>206413.0808774027</v>
+        <v>294408.2870840551</v>
       </c>
       <c r="AE14" t="n">
-        <v>282423.4835587697</v>
+        <v>402822.4067653578</v>
       </c>
       <c r="AF14" t="n">
         <v>8.972384853579304e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>255469.3826718524</v>
+        <v>364377.60162847</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>205.983203653659</v>
+        <v>293.9784098603114</v>
       </c>
       <c r="AB15" t="n">
-        <v>281.8353065763992</v>
+        <v>402.234229782987</v>
       </c>
       <c r="AC15" t="n">
-        <v>254.9373404751676</v>
+        <v>363.8455594317851</v>
       </c>
       <c r="AD15" t="n">
-        <v>205983.203653659</v>
+        <v>293978.4098603114</v>
       </c>
       <c r="AE15" t="n">
-        <v>281835.3065763992</v>
+        <v>402234.229782987</v>
       </c>
       <c r="AF15" t="n">
         <v>8.973108087911329e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>254937.3404751676</v>
+        <v>363845.5594317851</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>205.3824806648839</v>
+        <v>293.3776868715363</v>
       </c>
       <c r="AB16" t="n">
-        <v>281.0133708811296</v>
+        <v>401.4122940877171</v>
       </c>
       <c r="AC16" t="n">
-        <v>254.1938491690603</v>
+        <v>363.1020681256778</v>
       </c>
       <c r="AD16" t="n">
-        <v>205382.4806648839</v>
+        <v>293377.6868715363</v>
       </c>
       <c r="AE16" t="n">
-        <v>281013.3708811296</v>
+        <v>401412.2940877171</v>
       </c>
       <c r="AF16" t="n">
         <v>8.962380111986286e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>254193.8491690603</v>
+        <v>363102.0681256778</v>
       </c>
     </row>
     <row r="17">
@@ -6042,28 +6042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>204.742624781301</v>
+        <v>292.7378309879534</v>
       </c>
       <c r="AB17" t="n">
-        <v>280.1378918327627</v>
+        <v>400.5368150393496</v>
       </c>
       <c r="AC17" t="n">
-        <v>253.4019246123266</v>
+        <v>362.3101435689439</v>
       </c>
       <c r="AD17" t="n">
-        <v>204742.624781301</v>
+        <v>292737.8309879534</v>
       </c>
       <c r="AE17" t="n">
-        <v>280137.8918327627</v>
+        <v>400536.8150393496</v>
       </c>
       <c r="AF17" t="n">
         <v>9.050976317659396e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH17" t="n">
-        <v>253401.9246123266</v>
+        <v>362310.143568944</v>
       </c>
     </row>
   </sheetData>
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.8746008840672</v>
+        <v>373.293321727552</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.1496026060285</v>
+        <v>510.7563913267011</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.3002370239943</v>
+        <v>462.0105181895775</v>
       </c>
       <c r="AD2" t="n">
-        <v>266874.6008840672</v>
+        <v>373293.321727552</v>
       </c>
       <c r="AE2" t="n">
-        <v>365149.6026060284</v>
+        <v>510756.3913267011</v>
       </c>
       <c r="AF2" t="n">
         <v>7.747726918148334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>330300.2370239943</v>
+        <v>462010.5181895774</v>
       </c>
     </row>
     <row r="3">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.0315531620472</v>
+        <v>315.1233411240995</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.0028310782912</v>
+        <v>431.1656575866321</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.2257187789951</v>
+        <v>390.0158123713642</v>
       </c>
       <c r="AD3" t="n">
-        <v>228031.5531620472</v>
+        <v>315123.3411240994</v>
       </c>
       <c r="AE3" t="n">
-        <v>312002.8310782912</v>
+        <v>431165.6575866321</v>
       </c>
       <c r="AF3" t="n">
         <v>9.016197436087351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>282225.7187789952</v>
+        <v>390015.8123713642</v>
       </c>
     </row>
     <row r="4">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.0887548543232</v>
+        <v>302.1463773975945</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.2939234377096</v>
+        <v>413.4100033127935</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.2069244290171</v>
+        <v>373.9547328212036</v>
       </c>
       <c r="AD4" t="n">
-        <v>215088.7548543233</v>
+        <v>302146.3773975945</v>
       </c>
       <c r="AE4" t="n">
-        <v>294293.9234377096</v>
+        <v>413410.0033127936</v>
       </c>
       <c r="AF4" t="n">
         <v>9.52061807511597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>266206.9244290171</v>
+        <v>373954.7328212036</v>
       </c>
     </row>
     <row r="5">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.0686985484448</v>
+        <v>291.1936408994203</v>
       </c>
       <c r="AB5" t="n">
-        <v>279.2157962294422</v>
+        <v>398.42398603536</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.5678325192175</v>
+        <v>360.3989599997208</v>
       </c>
       <c r="AD5" t="n">
-        <v>204068.6985484448</v>
+        <v>291193.6408994203</v>
       </c>
       <c r="AE5" t="n">
-        <v>279215.7962294422</v>
+        <v>398423.98603536</v>
       </c>
       <c r="AF5" t="n">
         <v>9.725314331299112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>252567.8325192175</v>
+        <v>360398.9599997208</v>
       </c>
     </row>
     <row r="6">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.6213615403378</v>
+        <v>290.7463038913133</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.6037299998346</v>
+        <v>397.811919805752</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.014181031523</v>
+        <v>359.8453085120263</v>
       </c>
       <c r="AD6" t="n">
-        <v>203621.3615403378</v>
+        <v>290746.3038913133</v>
       </c>
       <c r="AE6" t="n">
-        <v>278603.7299998346</v>
+        <v>397811.9198057521</v>
       </c>
       <c r="AF6" t="n">
         <v>9.799239751138448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>252014.181031523</v>
+        <v>359845.3085120263</v>
       </c>
     </row>
     <row r="7">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>202.7754882425963</v>
+        <v>289.7989453670866</v>
       </c>
       <c r="AB7" t="n">
-        <v>277.4463688365691</v>
+        <v>396.5157020783965</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.9672767933126</v>
+        <v>358.6727999853167</v>
       </c>
       <c r="AD7" t="n">
-        <v>202775.4882425963</v>
+        <v>289798.9453670866</v>
       </c>
       <c r="AE7" t="n">
-        <v>277446.3688365691</v>
+        <v>396515.7020783966</v>
       </c>
       <c r="AF7" t="n">
         <v>9.890640850065585e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>250967.2767933126</v>
+        <v>358672.7999853167</v>
       </c>
     </row>
     <row r="8">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>202.0520252146977</v>
+        <v>289.075482339188</v>
       </c>
       <c r="AB8" t="n">
-        <v>276.4564948048625</v>
+        <v>395.5258280466896</v>
       </c>
       <c r="AC8" t="n">
-        <v>250.0718749498949</v>
+        <v>357.7773981418989</v>
       </c>
       <c r="AD8" t="n">
-        <v>202052.0252146978</v>
+        <v>289075.482339188</v>
       </c>
       <c r="AE8" t="n">
-        <v>276456.4948048625</v>
+        <v>395525.8280466896</v>
       </c>
       <c r="AF8" t="n">
         <v>9.976700326328149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>250071.874949895</v>
+        <v>357777.3981418989</v>
       </c>
     </row>
     <row r="9">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.1225687384836</v>
+        <v>278.5338075504274</v>
       </c>
       <c r="AB9" t="n">
-        <v>275.1847714493812</v>
+        <v>381.1022435348382</v>
       </c>
       <c r="AC9" t="n">
-        <v>248.9215230865855</v>
+        <v>344.7303802922307</v>
       </c>
       <c r="AD9" t="n">
-        <v>201122.5687384836</v>
+        <v>278533.8075504273</v>
       </c>
       <c r="AE9" t="n">
-        <v>275184.7714493813</v>
+        <v>381102.2435348383</v>
       </c>
       <c r="AF9" t="n">
         <v>1.008775332098421e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH9" t="n">
-        <v>248921.5230865855</v>
+        <v>344730.3802922308</v>
       </c>
     </row>
     <row r="10">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>200.9332619154409</v>
+        <v>278.3445007273846</v>
       </c>
       <c r="AB10" t="n">
-        <v>274.9257535024668</v>
+        <v>380.8432255879237</v>
       </c>
       <c r="AC10" t="n">
-        <v>248.6872254489904</v>
+        <v>344.4960826546356</v>
       </c>
       <c r="AD10" t="n">
-        <v>200933.2619154409</v>
+        <v>278344.5007273846</v>
       </c>
       <c r="AE10" t="n">
-        <v>274925.7535024668</v>
+        <v>380843.2255879237</v>
       </c>
       <c r="AF10" t="n">
         <v>1.006678250607885e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>248687.2254489904</v>
+        <v>344496.0826546357</v>
       </c>
     </row>
     <row r="11">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>190.2956057497063</v>
+        <v>277.3863826819008</v>
       </c>
       <c r="AB11" t="n">
-        <v>260.3708430362474</v>
+        <v>379.5322862089077</v>
       </c>
       <c r="AC11" t="n">
-        <v>235.5214152097173</v>
+        <v>343.3102574900379</v>
       </c>
       <c r="AD11" t="n">
-        <v>190295.6057497063</v>
+        <v>277386.3826819008</v>
       </c>
       <c r="AE11" t="n">
-        <v>260370.8430362474</v>
+        <v>379532.2862089077</v>
       </c>
       <c r="AF11" t="n">
         <v>1.014512630515925e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>235521.4152097173</v>
+        <v>343310.2574900379</v>
       </c>
     </row>
     <row r="12">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>190.2147627086262</v>
+        <v>277.3055396408207</v>
       </c>
       <c r="AB12" t="n">
-        <v>260.2602300208984</v>
+        <v>379.4216731935586</v>
       </c>
       <c r="AC12" t="n">
-        <v>235.4213589453068</v>
+        <v>343.2102012256274</v>
       </c>
       <c r="AD12" t="n">
-        <v>190214.7627086262</v>
+        <v>277305.5396408207</v>
       </c>
       <c r="AE12" t="n">
-        <v>260260.2300208984</v>
+        <v>379421.6731935586</v>
       </c>
       <c r="AF12" t="n">
         <v>1.013556414113008e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>235421.3589453068</v>
+        <v>343210.2012256274</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.9525417856923</v>
+        <v>275.1518774432333</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.2696919026556</v>
+        <v>376.474937561949</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.334479201858</v>
+        <v>340.5446979069293</v>
       </c>
       <c r="AD2" t="n">
-        <v>190952.5417856923</v>
+        <v>275151.8774432333</v>
       </c>
       <c r="AE2" t="n">
-        <v>261269.6919026555</v>
+        <v>376474.9375619491</v>
       </c>
       <c r="AF2" t="n">
         <v>1.354064937997116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>236334.479201858</v>
+        <v>340544.6979069294</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.2499863898913</v>
+        <v>253.026520499998</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.8894952129361</v>
+        <v>346.2020480901925</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.6130240909406</v>
+        <v>313.1610105181941</v>
       </c>
       <c r="AD3" t="n">
-        <v>178249.9863898913</v>
+        <v>253026.520499998</v>
       </c>
       <c r="AE3" t="n">
-        <v>243889.4952129361</v>
+        <v>346202.0480901925</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458353352195675e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220613.0240909406</v>
+        <v>313161.0105181941</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.6597625515617</v>
+        <v>251.4362966616684</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.7136808016102</v>
+        <v>344.0262336788666</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.6448663532563</v>
+        <v>311.1928527805097</v>
       </c>
       <c r="AD4" t="n">
-        <v>176659.7625515617</v>
+        <v>251436.2966616684</v>
       </c>
       <c r="AE4" t="n">
-        <v>241713.6808016102</v>
+        <v>344026.2336788666</v>
       </c>
       <c r="AF4" t="n">
         <v>1.494463100554099e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>218644.8663532563</v>
+        <v>311192.8527805097</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.0224468916171</v>
+        <v>251.153451711593</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.5274803473206</v>
+        <v>343.6392327399351</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.7171383633712</v>
+        <v>310.8427866680306</v>
       </c>
       <c r="AD5" t="n">
-        <v>167022.4468916171</v>
+        <v>251153.451711593</v>
       </c>
       <c r="AE5" t="n">
-        <v>228527.4803473206</v>
+        <v>343639.2327399351</v>
       </c>
       <c r="AF5" t="n">
         <v>1.504229208891669e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>206717.1383633713</v>
+        <v>310842.7866680305</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.5136384341475</v>
+        <v>315.339339718939</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.7164884805939</v>
+        <v>431.461196393277</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.9210902818464</v>
+        <v>390.2831453690943</v>
       </c>
       <c r="AD2" t="n">
-        <v>220513.6384341475</v>
+        <v>315339.339718939</v>
       </c>
       <c r="AE2" t="n">
-        <v>301716.4884805939</v>
+        <v>431461.196393277</v>
       </c>
       <c r="AF2" t="n">
         <v>1.062433304643956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>272921.0902818464</v>
+        <v>390283.1453690943</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.1113780646227</v>
+        <v>280.3530239944498</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.9599951743929</v>
+        <v>383.5913757317149</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.4817079157333</v>
+        <v>346.9819532057565</v>
       </c>
       <c r="AD3" t="n">
-        <v>195111.3780646227</v>
+        <v>280353.0239944498</v>
       </c>
       <c r="AE3" t="n">
-        <v>266959.9951743929</v>
+        <v>383591.3757317149</v>
       </c>
       <c r="AF3" t="n">
         <v>1.20098071669654e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>241481.7079157333</v>
+        <v>346981.9532057565</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.7552373690889</v>
+        <v>269.0642031066203</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.4220224772025</v>
+        <v>368.1455129653581</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.4266575250763</v>
+        <v>333.0102219034162</v>
       </c>
       <c r="AD4" t="n">
-        <v>183755.2373690889</v>
+        <v>269064.2031066203</v>
       </c>
       <c r="AE4" t="n">
-        <v>251422.0224772025</v>
+        <v>368145.5129653581</v>
       </c>
       <c r="AF4" t="n">
         <v>1.241992536212709e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>227426.6575250762</v>
+        <v>333010.2219034162</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.4004088445848</v>
+        <v>258.1936500647137</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.5682863191608</v>
+        <v>353.2719427184679</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.7498393442224</v>
+        <v>319.5561643257022</v>
       </c>
       <c r="AD5" t="n">
-        <v>182400.4088445848</v>
+        <v>258193.6500647136</v>
       </c>
       <c r="AE5" t="n">
-        <v>249568.2863191608</v>
+        <v>353271.9427184679</v>
       </c>
       <c r="AF5" t="n">
         <v>1.267675739804759e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>225749.8393442224</v>
+        <v>319556.1643257022</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.6554300770331</v>
+        <v>257.4486712971587</v>
       </c>
       <c r="AB6" t="n">
-        <v>248.5489735032534</v>
+        <v>352.2526299023891</v>
       </c>
       <c r="AC6" t="n">
-        <v>224.8278083128504</v>
+        <v>318.6341332942814</v>
       </c>
       <c r="AD6" t="n">
-        <v>181655.4300770331</v>
+        <v>257448.6712971587</v>
       </c>
       <c r="AE6" t="n">
-        <v>248548.9735032534</v>
+        <v>352252.6299023891</v>
       </c>
       <c r="AF6" t="n">
         <v>1.274993300604729e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>224827.8083128504</v>
+        <v>318634.1332942814</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.1590527972935</v>
+        <v>256.9522940174191</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.8698082104941</v>
+        <v>351.5734646096297</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.2134616024173</v>
+        <v>318.0197865838483</v>
       </c>
       <c r="AD7" t="n">
-        <v>181159.0527972935</v>
+        <v>256952.2940174192</v>
       </c>
       <c r="AE7" t="n">
-        <v>247869.8082104941</v>
+        <v>351573.4646096297</v>
       </c>
       <c r="AF7" t="n">
         <v>1.28406452521297e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>224213.4616024173</v>
+        <v>318019.7865838483</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.8282286079395</v>
+        <v>258.0552519097553</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.2076952583727</v>
+        <v>353.0825802571582</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.3780485530917</v>
+        <v>319.3848743519281</v>
       </c>
       <c r="AD2" t="n">
-        <v>174828.2286079395</v>
+        <v>258055.2519097553</v>
       </c>
       <c r="AE2" t="n">
-        <v>239207.6952583727</v>
+        <v>353082.5802571582</v>
       </c>
       <c r="AF2" t="n">
         <v>1.645432570979328e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>216378.0485530917</v>
+        <v>319384.8743519281</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.3703069751388</v>
+        <v>246.5631648581707</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.5304613925558</v>
+        <v>337.3585997579222</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.1970278842875</v>
+        <v>305.1615684828952</v>
       </c>
       <c r="AD3" t="n">
-        <v>163370.3069751388</v>
+        <v>246563.1648581707</v>
       </c>
       <c r="AE3" t="n">
-        <v>223530.4613925559</v>
+        <v>337358.5997579222</v>
       </c>
       <c r="AF3" t="n">
         <v>1.724850305881921e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202197.0278842875</v>
+        <v>305161.5684828952</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.2776307559724</v>
+        <v>237.2875762853888</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.4036577009061</v>
+        <v>324.6673302625612</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.0823261589987</v>
+        <v>293.6815359358587</v>
       </c>
       <c r="AD4" t="n">
-        <v>163277.6307559724</v>
+        <v>237287.5762853888</v>
       </c>
       <c r="AE4" t="n">
-        <v>223403.6577009061</v>
+        <v>324667.3302625612</v>
       </c>
       <c r="AF4" t="n">
         <v>1.736921632904816e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>202082.3261589987</v>
+        <v>293681.5359358587</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.498353159274</v>
+        <v>386.9713321264144</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.1077803376338</v>
+        <v>529.4712485856553</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7852132317415</v>
+        <v>478.9392557382043</v>
       </c>
       <c r="AD2" t="n">
-        <v>270498.353159274</v>
+        <v>386971.3321264144</v>
       </c>
       <c r="AE2" t="n">
-        <v>370107.7803376338</v>
+        <v>529471.2485856554</v>
       </c>
       <c r="AF2" t="n">
         <v>7.355340239174801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>334785.2132317415</v>
+        <v>478939.2557382043</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.5859568490298</v>
+        <v>327.5737586108152</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.4978788951562</v>
+        <v>448.2008680656101</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.3872041375501</v>
+        <v>405.4252062712966</v>
       </c>
       <c r="AD3" t="n">
-        <v>230585.9568490298</v>
+        <v>327573.7586108152</v>
       </c>
       <c r="AE3" t="n">
-        <v>315497.8788951562</v>
+        <v>448200.8680656101</v>
       </c>
       <c r="AF3" t="n">
         <v>8.624121468389659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285387.2041375501</v>
+        <v>405425.2062712967</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.7395422559596</v>
+        <v>305.0525807376987</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.9208477051133</v>
+        <v>417.3863989353668</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.487700134761</v>
+        <v>377.5516268264647</v>
       </c>
       <c r="AD4" t="n">
-        <v>217739.5422559596</v>
+        <v>305052.5807376987</v>
       </c>
       <c r="AE4" t="n">
-        <v>297920.8477051132</v>
+        <v>417386.3989353668</v>
       </c>
       <c r="AF4" t="n">
         <v>9.080512038362864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269487.700134761</v>
+        <v>377551.6268264647</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.1014748547469</v>
+        <v>303.1224310054555</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.9971304514847</v>
+        <v>414.7454829195151</v>
       </c>
       <c r="AC5" t="n">
-        <v>255.0837201067363</v>
+        <v>375.162756128617</v>
       </c>
       <c r="AD5" t="n">
-        <v>206101.4748547469</v>
+        <v>303122.4310054555</v>
       </c>
       <c r="AE5" t="n">
-        <v>281997.1304514848</v>
+        <v>414745.4829195151</v>
       </c>
       <c r="AF5" t="n">
         <v>9.369906904856027e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>255083.7201067363</v>
+        <v>375162.756128617</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.7652457354296</v>
+        <v>292.145604024873</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.1688428201675</v>
+        <v>399.7265039812534</v>
       </c>
       <c r="AC6" t="n">
-        <v>253.4299216809335</v>
+        <v>361.5771674609537</v>
       </c>
       <c r="AD6" t="n">
-        <v>204765.2457354296</v>
+        <v>292145.604024873</v>
       </c>
       <c r="AE6" t="n">
-        <v>280168.8428201675</v>
+        <v>399726.5039812534</v>
       </c>
       <c r="AF6" t="n">
         <v>9.550288005763374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>253429.9216809335</v>
+        <v>361577.1674609536</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>204.3822116083101</v>
+        <v>291.6610846712684</v>
       </c>
       <c r="AB7" t="n">
-        <v>279.6447586291698</v>
+        <v>399.0635632261661</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.9558553495677</v>
+        <v>360.9774968410887</v>
       </c>
       <c r="AD7" t="n">
-        <v>204382.2116083101</v>
+        <v>291661.0846712684</v>
       </c>
       <c r="AE7" t="n">
-        <v>279644.7586291698</v>
+        <v>399063.5632261661</v>
       </c>
       <c r="AF7" t="n">
         <v>9.590572903789773e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>252955.8553495677</v>
+        <v>360977.4968410888</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>203.6973075418259</v>
+        <v>290.9761806047842</v>
       </c>
       <c r="AB8" t="n">
-        <v>278.7076426695717</v>
+        <v>398.1264472665675</v>
       </c>
       <c r="AC8" t="n">
-        <v>252.1081764219029</v>
+        <v>360.1298179134238</v>
       </c>
       <c r="AD8" t="n">
-        <v>203697.307541826</v>
+        <v>290976.1806047842</v>
       </c>
       <c r="AE8" t="n">
-        <v>278707.6426695717</v>
+        <v>398126.4472665676</v>
       </c>
       <c r="AF8" t="n">
         <v>9.664578706873417e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH8" t="n">
-        <v>252108.1764219029</v>
+        <v>360129.8179134238</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>202.8472652351175</v>
+        <v>290.1261382980757</v>
       </c>
       <c r="AB9" t="n">
-        <v>277.544577284314</v>
+        <v>396.9633818813092</v>
       </c>
       <c r="AC9" t="n">
-        <v>251.0561123646412</v>
+        <v>359.077753856162</v>
       </c>
       <c r="AD9" t="n">
-        <v>202847.2652351175</v>
+        <v>290126.1382980757</v>
       </c>
       <c r="AE9" t="n">
-        <v>277544.577284314</v>
+        <v>396963.3818813092</v>
       </c>
       <c r="AF9" t="n">
         <v>9.747980029305067e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>251056.1123646412</v>
+        <v>359077.753856162</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>202.7299705047833</v>
+        <v>290.0088435677415</v>
       </c>
       <c r="AB10" t="n">
-        <v>277.3840894595925</v>
+        <v>396.8028940565877</v>
       </c>
       <c r="AC10" t="n">
-        <v>250.9109412726651</v>
+        <v>358.9325827641858</v>
       </c>
       <c r="AD10" t="n">
-        <v>202729.9705047833</v>
+        <v>290008.8435677415</v>
       </c>
       <c r="AE10" t="n">
-        <v>277384.0894595925</v>
+        <v>396802.8940565877</v>
       </c>
       <c r="AF10" t="n">
         <v>9.751648143023125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>250910.9412726651</v>
+        <v>358932.5827641858</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>201.8019008780734</v>
+        <v>279.4401760797664</v>
       </c>
       <c r="AB11" t="n">
-        <v>276.1142636527864</v>
+        <v>382.3423769428374</v>
       </c>
       <c r="AC11" t="n">
-        <v>249.7623058586484</v>
+        <v>345.8521571083085</v>
       </c>
       <c r="AD11" t="n">
-        <v>201801.9008780734</v>
+        <v>279440.1760797664</v>
       </c>
       <c r="AE11" t="n">
-        <v>276114.2636527864</v>
+        <v>382342.3769428374</v>
       </c>
       <c r="AF11" t="n">
         <v>9.821149245049502e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>249762.3058586484</v>
+        <v>345852.1571083085</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>201.4216285385342</v>
+        <v>279.0599037402272</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.5939582613976</v>
+        <v>381.8220715514482</v>
       </c>
       <c r="AC12" t="n">
-        <v>249.2916576835603</v>
+        <v>345.3815089332204</v>
       </c>
       <c r="AD12" t="n">
-        <v>201421.6285385342</v>
+        <v>279059.9037402272</v>
       </c>
       <c r="AE12" t="n">
-        <v>275593.9582613976</v>
+        <v>381822.0715514483</v>
       </c>
       <c r="AF12" t="n">
         <v>9.837366168855658e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH12" t="n">
-        <v>249291.6576835603</v>
+        <v>345381.5089332204</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>201.3076364412115</v>
+        <v>278.9459116429044</v>
       </c>
       <c r="AB13" t="n">
-        <v>275.4379892448642</v>
+        <v>381.6661025349148</v>
       </c>
       <c r="AC13" t="n">
-        <v>249.150574131061</v>
+        <v>345.240425380721</v>
       </c>
       <c r="AD13" t="n">
-        <v>201307.6364412114</v>
+        <v>278945.9116429045</v>
       </c>
       <c r="AE13" t="n">
-        <v>275437.9892448642</v>
+        <v>381666.1025349148</v>
       </c>
       <c r="AF13" t="n">
         <v>9.816966308353471e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>249150.574131061</v>
+        <v>345240.425380721</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.6714580401906</v>
+        <v>245.1202851375132</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.8884625006924</v>
+        <v>335.384388068759</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.4710373077218</v>
+        <v>303.3757727865215</v>
       </c>
       <c r="AD2" t="n">
-        <v>171671.4580401906</v>
+        <v>245120.2851375132</v>
       </c>
       <c r="AE2" t="n">
-        <v>234888.4625006923</v>
+        <v>335384.388068759</v>
       </c>
       <c r="AF2" t="n">
         <v>1.831286937621489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>212471.0373077218</v>
+        <v>303375.7727865215</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.0711558893128</v>
+        <v>234.5873027943397</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.3846614455429</v>
+        <v>320.9726969444509</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.3514586690585</v>
+        <v>290.3395132361773</v>
       </c>
       <c r="AD3" t="n">
-        <v>161071.1558893128</v>
+        <v>234587.3027943397</v>
       </c>
       <c r="AE3" t="n">
-        <v>220384.6614455429</v>
+        <v>320972.696944451</v>
       </c>
       <c r="AF3" t="n">
         <v>1.898170306320454e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>199351.4586690585</v>
+        <v>290339.5132361773</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8532651092794</v>
+        <v>332.6703831375083</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0730865509518</v>
+        <v>455.174294590237</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.1440060100588</v>
+        <v>411.7330987556787</v>
       </c>
       <c r="AD2" t="n">
-        <v>236853.2651092794</v>
+        <v>332670.3831375084</v>
       </c>
       <c r="AE2" t="n">
-        <v>324073.0865509518</v>
+        <v>455174.294590237</v>
       </c>
       <c r="AF2" t="n">
         <v>9.18403862209927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>293144.0060100588</v>
+        <v>411733.0987556787</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.1128961285327</v>
+        <v>298.3415703731683</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.2222222434637</v>
+        <v>408.2040984857345</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.5238206820802</v>
+        <v>369.2456722443057</v>
       </c>
       <c r="AD3" t="n">
-        <v>212112.8961285327</v>
+        <v>298341.5703731683</v>
       </c>
       <c r="AE3" t="n">
-        <v>290222.2222434637</v>
+        <v>408204.0984857345</v>
       </c>
       <c r="AF3" t="n">
         <v>1.020658280061013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>262523.8206820802</v>
+        <v>369245.6722443057</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.9540457532038</v>
+        <v>286.1485545790585</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.5859467493265</v>
+        <v>391.5210763583409</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.4752879719389</v>
+        <v>354.154854333982</v>
       </c>
       <c r="AD4" t="n">
-        <v>199954.0457532039</v>
+        <v>286148.5545790585</v>
       </c>
       <c r="AE4" t="n">
-        <v>273585.9467493265</v>
+        <v>391521.0763583409</v>
       </c>
       <c r="AF4" t="n">
         <v>1.066981108905194e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>247475.2879719388</v>
+        <v>354154.854333982</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.5989223157597</v>
+        <v>275.2733181955829</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.7318070783896</v>
+        <v>376.6410981569016</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.7981047888942</v>
+        <v>340.6950003679075</v>
       </c>
       <c r="AD5" t="n">
-        <v>198598.9223157597</v>
+        <v>275273.3181955829</v>
       </c>
       <c r="AE5" t="n">
-        <v>271731.8070783896</v>
+        <v>376641.0981569017</v>
       </c>
       <c r="AF5" t="n">
         <v>1.090787887815825e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>245798.1047888942</v>
+        <v>340695.0003679075</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.9039125692329</v>
+        <v>274.1657412027918</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.0984229126691</v>
+        <v>375.1256624525166</v>
       </c>
       <c r="AC6" t="n">
-        <v>232.5613102698617</v>
+        <v>339.3241957202215</v>
       </c>
       <c r="AD6" t="n">
-        <v>187903.9125692329</v>
+        <v>274165.7412027918</v>
       </c>
       <c r="AE6" t="n">
-        <v>257098.4229126691</v>
+        <v>375125.6624525166</v>
       </c>
       <c r="AF6" t="n">
         <v>1.106828780714344e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>232561.3102698617</v>
+        <v>339324.1957202215</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>187.1674683901348</v>
+        <v>273.4292970236937</v>
       </c>
       <c r="AB7" t="n">
-        <v>256.0907874972035</v>
+        <v>374.1180270370504</v>
       </c>
       <c r="AC7" t="n">
-        <v>231.6498421642226</v>
+        <v>338.4127276145823</v>
       </c>
       <c r="AD7" t="n">
-        <v>187167.4683901348</v>
+        <v>273429.2970236937</v>
       </c>
       <c r="AE7" t="n">
-        <v>256090.7874972034</v>
+        <v>374118.0270370504</v>
       </c>
       <c r="AF7" t="n">
         <v>1.114809788222637e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>231649.8421642226</v>
+        <v>338412.7276145822</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.366965703091</v>
+        <v>272.6287943366499</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.9955044051045</v>
+        <v>373.0227439449509</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.6590913531938</v>
+        <v>337.4219768035532</v>
       </c>
       <c r="AD8" t="n">
-        <v>186366.965703091</v>
+        <v>272628.7943366499</v>
       </c>
       <c r="AE8" t="n">
-        <v>254995.5044051045</v>
+        <v>373022.7439449509</v>
       </c>
       <c r="AF8" t="n">
         <v>1.123837720345675e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>230659.0913531938</v>
+        <v>337421.9768035532</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.9683946115653</v>
+        <v>272.2302232451241</v>
       </c>
       <c r="AB9" t="n">
-        <v>254.4501618539637</v>
+        <v>372.4774013938098</v>
       </c>
       <c r="AC9" t="n">
-        <v>230.1657955297406</v>
+        <v>336.9286809801</v>
       </c>
       <c r="AD9" t="n">
-        <v>185968.3946115653</v>
+        <v>272230.2232451242</v>
       </c>
       <c r="AE9" t="n">
-        <v>254450.1618539637</v>
+        <v>372477.4013938098</v>
       </c>
       <c r="AF9" t="n">
         <v>1.123988305393001e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>230165.7955297406</v>
+        <v>336928.6809800999</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>185.8796585053049</v>
+        <v>272.1414871388639</v>
       </c>
       <c r="AB10" t="n">
-        <v>254.3287491986177</v>
+        <v>372.3559887384637</v>
       </c>
       <c r="AC10" t="n">
-        <v>230.055970327817</v>
+        <v>336.8188557781763</v>
       </c>
       <c r="AD10" t="n">
-        <v>185879.6585053049</v>
+        <v>272141.4871388638</v>
       </c>
       <c r="AE10" t="n">
-        <v>254328.7491986176</v>
+        <v>372355.9887384637</v>
       </c>
       <c r="AF10" t="n">
         <v>1.123493525951786e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>230055.970327817</v>
+        <v>336818.8557781763</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3240250843549</v>
+        <v>359.4860198520875</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.6091069874853</v>
+        <v>491.8646317655223</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.5292202856402</v>
+        <v>444.9217616461666</v>
       </c>
       <c r="AD2" t="n">
-        <v>253324.0250843549</v>
+        <v>359486.0198520875</v>
       </c>
       <c r="AE2" t="n">
-        <v>346609.1069874853</v>
+        <v>491864.6317655223</v>
       </c>
       <c r="AF2" t="n">
         <v>8.196549163117918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>313529.2202856402</v>
+        <v>444921.7616461666</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.4540250084209</v>
+        <v>311.9307639239422</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.7937021771276</v>
+        <v>426.7974326148112</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.659004986989</v>
+        <v>386.0644846600117</v>
       </c>
       <c r="AD3" t="n">
-        <v>215454.0250084209</v>
+        <v>311930.7639239422</v>
       </c>
       <c r="AE3" t="n">
-        <v>294793.7021771276</v>
+        <v>426797.4326148112</v>
       </c>
       <c r="AF3" t="n">
         <v>9.477898749461088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>266659.004986989</v>
+        <v>386064.4846600117</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.8570240645472</v>
+        <v>300.2995975612876</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.9261738621545</v>
+        <v>410.8831576665822</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.3058513041761</v>
+        <v>371.6690457770165</v>
       </c>
       <c r="AD4" t="n">
-        <v>203857.0240645472</v>
+        <v>300299.5975612876</v>
       </c>
       <c r="AE4" t="n">
-        <v>278926.1738621545</v>
+        <v>410883.1576665822</v>
       </c>
       <c r="AF4" t="n">
         <v>9.81937086731547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>252305.8513041761</v>
+        <v>371669.0457770165</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.6924060552</v>
+        <v>289.5522199560721</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.3326921224461</v>
+        <v>396.1781214862896</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.8644492252393</v>
+        <v>358.367437611123</v>
       </c>
       <c r="AD5" t="n">
-        <v>202692.4060552</v>
+        <v>289552.219956072</v>
       </c>
       <c r="AE5" t="n">
-        <v>277332.6921224461</v>
+        <v>396178.1214862896</v>
       </c>
       <c r="AF5" t="n">
         <v>1.001633496304515e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250864.4492252393</v>
+        <v>358367.437611123</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>201.5707871368913</v>
+        <v>288.3291158112781</v>
       </c>
       <c r="AB6" t="n">
-        <v>275.7980436360826</v>
+        <v>394.5046164358358</v>
       </c>
       <c r="AC6" t="n">
-        <v>249.4762654365211</v>
+        <v>356.8536495339056</v>
       </c>
       <c r="AD6" t="n">
-        <v>201570.7871368913</v>
+        <v>288329.1158112781</v>
       </c>
       <c r="AE6" t="n">
-        <v>275798.0436360826</v>
+        <v>394504.6164358358</v>
       </c>
       <c r="AF6" t="n">
         <v>1.017864420756741e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>249476.2654365211</v>
+        <v>356853.6495339056</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.8145461008067</v>
+        <v>287.5728747751934</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.7633212875122</v>
+        <v>393.4698940872649</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.540295536656</v>
+        <v>355.9176796340404</v>
       </c>
       <c r="AD7" t="n">
-        <v>200814.5461008067</v>
+        <v>287572.8747751935</v>
       </c>
       <c r="AE7" t="n">
-        <v>274763.3212875122</v>
+        <v>393469.894087265</v>
       </c>
       <c r="AF7" t="n">
         <v>1.02518796548456e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>248540.295536656</v>
+        <v>355917.6796340404</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>200.1362419918167</v>
+        <v>277.3118110703351</v>
       </c>
       <c r="AB8" t="n">
-        <v>273.8352356809273</v>
+        <v>379.4302540400961</v>
       </c>
       <c r="AC8" t="n">
-        <v>247.7007851177869</v>
+        <v>343.2179631282148</v>
       </c>
       <c r="AD8" t="n">
-        <v>200136.2419918167</v>
+        <v>277311.8110703351</v>
       </c>
       <c r="AE8" t="n">
-        <v>273835.2356809273</v>
+        <v>379430.2540400961</v>
       </c>
       <c r="AF8" t="n">
         <v>1.033932900593933e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>247700.7851177869</v>
+        <v>343217.9631282148</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.7872646817661</v>
+        <v>276.6129131638571</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.6753083606669</v>
+        <v>378.4739910912534</v>
       </c>
       <c r="AC9" t="n">
-        <v>234.8922613873849</v>
+        <v>342.3529645730861</v>
       </c>
       <c r="AD9" t="n">
-        <v>189787.2646817661</v>
+        <v>276612.9131638571</v>
       </c>
       <c r="AE9" t="n">
-        <v>259675.3083606669</v>
+        <v>378473.9910912534</v>
       </c>
       <c r="AF9" t="n">
         <v>1.041933297884396e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>234892.2613873849</v>
+        <v>342352.9645730861</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.1834683066306</v>
+        <v>276.0091167887216</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.8491675225907</v>
+        <v>377.6478502531768</v>
       </c>
       <c r="AC10" t="n">
-        <v>234.1449662713985</v>
+        <v>341.6056694570996</v>
       </c>
       <c r="AD10" t="n">
-        <v>189183.4683066306</v>
+        <v>276009.1167887216</v>
       </c>
       <c r="AE10" t="n">
-        <v>258849.1675225908</v>
+        <v>377647.8502531768</v>
       </c>
       <c r="AF10" t="n">
         <v>1.040464527823457e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>234144.9662713985</v>
+        <v>341605.6694570996</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>188.6795543773633</v>
+        <v>275.5052028594543</v>
       </c>
       <c r="AB11" t="n">
-        <v>258.159690253454</v>
+        <v>376.9583729840398</v>
       </c>
       <c r="AC11" t="n">
-        <v>233.5212917451406</v>
+        <v>340.9819949308416</v>
       </c>
       <c r="AD11" t="n">
-        <v>188679.5543773633</v>
+        <v>275505.2028594543</v>
       </c>
       <c r="AE11" t="n">
-        <v>258159.690253454</v>
+        <v>376958.3729840398</v>
       </c>
       <c r="AF11" t="n">
         <v>1.050109676841147e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>233521.2917451406</v>
+        <v>340981.9949308416</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.7669153678762</v>
+        <v>414.8536152814261</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.4178301555042</v>
+        <v>567.6210184778604</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.534444259978</v>
+        <v>513.4480651354356</v>
       </c>
       <c r="AD2" t="n">
-        <v>297766.9153678762</v>
+        <v>414853.6152814261</v>
       </c>
       <c r="AE2" t="n">
-        <v>407417.8301555042</v>
+        <v>567621.0184778604</v>
       </c>
       <c r="AF2" t="n">
         <v>6.659460644552373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>368534.444259978</v>
+        <v>513448.0651354357</v>
       </c>
     </row>
     <row r="3">
@@ -14015,19 +14015,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.0156686623324</v>
+        <v>342.3385225692568</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.5588060232065</v>
+        <v>468.402669488964</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.8696848870658</v>
+        <v>423.6989761202121</v>
       </c>
       <c r="AD3" t="n">
-        <v>235015.6686623323</v>
+        <v>342338.5225692568</v>
       </c>
       <c r="AE3" t="n">
-        <v>321558.8060232065</v>
+        <v>468402.669488964</v>
       </c>
       <c r="AF3" t="n">
         <v>8.006710536202891e-06</v>
@@ -14036,7 +14036,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>290869.6848870658</v>
+        <v>423698.9761202121</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.7983551308546</v>
+        <v>319.6307155328745</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.1567357115853</v>
+        <v>437.3328461040429</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.8877419876399</v>
+        <v>395.5944130723768</v>
       </c>
       <c r="AD4" t="n">
-        <v>231798.3551308546</v>
+        <v>319630.7155328746</v>
       </c>
       <c r="AE4" t="n">
-        <v>317156.7357115853</v>
+        <v>437332.8461040428</v>
       </c>
       <c r="AF4" t="n">
         <v>8.431879368469289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>286887.7419876399</v>
+        <v>395594.4130723768</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.9084353616929</v>
+        <v>307.7066303449319</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.8884229371868</v>
+        <v>421.0177866963882</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.1720541517045</v>
+        <v>380.836440036259</v>
       </c>
       <c r="AD5" t="n">
-        <v>219908.4353616929</v>
+        <v>307706.6303449319</v>
       </c>
       <c r="AE5" t="n">
-        <v>300888.4229371868</v>
+        <v>421017.7866963882</v>
       </c>
       <c r="AF5" t="n">
         <v>8.712146232575432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>272172.0541517045</v>
+        <v>380836.440036259</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.8916839385728</v>
+        <v>306.6898789218118</v>
       </c>
       <c r="AB6" t="n">
-        <v>299.4972587841675</v>
+        <v>419.6266225433681</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.9136607529377</v>
+        <v>379.578046637492</v>
       </c>
       <c r="AD6" t="n">
-        <v>218891.6839385728</v>
+        <v>306689.8789218118</v>
       </c>
       <c r="AE6" t="n">
-        <v>299497.2587841675</v>
+        <v>419626.6225433681</v>
       </c>
       <c r="AF6" t="n">
         <v>8.849972308447609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>270913.6607529377</v>
+        <v>379578.046637492</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>208.2662018497724</v>
+        <v>305.8262207799253</v>
       </c>
       <c r="AB7" t="n">
-        <v>284.9590054270921</v>
+        <v>418.444927371731</v>
       </c>
       <c r="AC7" t="n">
-        <v>257.7629178916902</v>
+        <v>378.5091307945163</v>
       </c>
       <c r="AD7" t="n">
-        <v>208266.2018497724</v>
+        <v>305826.2207799253</v>
       </c>
       <c r="AE7" t="n">
-        <v>284959.0054270921</v>
+        <v>418444.927371731</v>
       </c>
       <c r="AF7" t="n">
         <v>8.924853707704948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>257762.9178916902</v>
+        <v>378509.1307945163</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>207.5804293075953</v>
+        <v>295.4459440985386</v>
       </c>
       <c r="AB8" t="n">
-        <v>284.0207011807364</v>
+        <v>404.2421748707707</v>
       </c>
       <c r="AC8" t="n">
-        <v>256.9141640856882</v>
+        <v>365.6618690585593</v>
       </c>
       <c r="AD8" t="n">
-        <v>207580.4293075953</v>
+        <v>295445.9440985386</v>
       </c>
       <c r="AE8" t="n">
-        <v>284020.7011807364</v>
+        <v>404242.1748707707</v>
       </c>
       <c r="AF8" t="n">
         <v>8.998442987500983e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH8" t="n">
-        <v>256914.1640856882</v>
+        <v>365661.8690585593</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.9309224921794</v>
+        <v>294.7964372831227</v>
       </c>
       <c r="AB9" t="n">
-        <v>283.1320173016665</v>
+        <v>403.3534909917003</v>
       </c>
       <c r="AC9" t="n">
-        <v>256.1102949487607</v>
+        <v>364.8579999216317</v>
       </c>
       <c r="AD9" t="n">
-        <v>206930.9224921794</v>
+        <v>294796.4372831227</v>
       </c>
       <c r="AE9" t="n">
-        <v>283132.0173016664</v>
+        <v>403353.4909917003</v>
       </c>
       <c r="AF9" t="n">
         <v>9.078123687614586e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>256110.2949487607</v>
+        <v>364857.9999216317</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>205.9775692141318</v>
+        <v>293.7415987785898</v>
       </c>
       <c r="AB10" t="n">
-        <v>281.8275972876641</v>
+        <v>401.9102144136079</v>
       </c>
       <c r="AC10" t="n">
-        <v>254.9303669501294</v>
+        <v>363.5524676345012</v>
       </c>
       <c r="AD10" t="n">
-        <v>205977.5692141318</v>
+        <v>293741.5987785898</v>
       </c>
       <c r="AE10" t="n">
-        <v>281827.5972876641</v>
+        <v>401910.2144136079</v>
       </c>
       <c r="AF10" t="n">
         <v>9.182723834481859e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>254930.3669501294</v>
+        <v>363552.4676345012</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>205.9402796645795</v>
+        <v>293.7043092290376</v>
       </c>
       <c r="AB11" t="n">
-        <v>281.776576080868</v>
+        <v>401.8591932068117</v>
       </c>
       <c r="AC11" t="n">
-        <v>254.8842151357011</v>
+        <v>363.5063158200728</v>
       </c>
       <c r="AD11" t="n">
-        <v>205940.2796645795</v>
+        <v>293704.3092290375</v>
       </c>
       <c r="AE11" t="n">
-        <v>281776.576080868</v>
+        <v>401859.1932068117</v>
       </c>
       <c r="AF11" t="n">
         <v>9.163342042562336e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>254884.2151357011</v>
+        <v>363506.3158200728</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>205.0603395825898</v>
+        <v>292.8243691470479</v>
       </c>
       <c r="AB12" t="n">
-        <v>280.5726032404736</v>
+        <v>400.6552203664168</v>
       </c>
       <c r="AC12" t="n">
-        <v>253.7951477734071</v>
+        <v>362.4172484577787</v>
       </c>
       <c r="AD12" t="n">
-        <v>205060.3395825898</v>
+        <v>292824.3691470479</v>
       </c>
       <c r="AE12" t="n">
-        <v>280572.6032404736</v>
+        <v>400655.2203664167</v>
       </c>
       <c r="AF12" t="n">
         <v>9.236377556874958e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH12" t="n">
-        <v>253795.1477734071</v>
+        <v>362417.2484577787</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>204.7642089624811</v>
+        <v>292.528238526939</v>
       </c>
       <c r="AB13" t="n">
-        <v>280.1674242616801</v>
+        <v>400.250041387623</v>
       </c>
       <c r="AC13" t="n">
-        <v>253.4286385076772</v>
+        <v>362.0507391920488</v>
       </c>
       <c r="AD13" t="n">
-        <v>204764.2089624811</v>
+        <v>292528.2385269391</v>
       </c>
       <c r="AE13" t="n">
-        <v>280167.4242616801</v>
+        <v>400250.041387623</v>
       </c>
       <c r="AF13" t="n">
         <v>9.248683456506403e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>253428.6385076772</v>
+        <v>362050.7391920488</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>204.5900519746505</v>
+        <v>292.3540815391085</v>
       </c>
       <c r="AB14" t="n">
-        <v>279.9291349876664</v>
+        <v>400.0117521136092</v>
       </c>
       <c r="AC14" t="n">
-        <v>253.2130912275343</v>
+        <v>361.8351919119058</v>
       </c>
       <c r="AD14" t="n">
-        <v>204590.0519746506</v>
+        <v>292354.0815391085</v>
       </c>
       <c r="AE14" t="n">
-        <v>279929.1349876664</v>
+        <v>400011.7521136092</v>
       </c>
       <c r="AF14" t="n">
         <v>9.229424723583192e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>253213.0912275343</v>
+        <v>361835.1919119058</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>203.990413293293</v>
+        <v>291.754442857751</v>
       </c>
       <c r="AB15" t="n">
-        <v>279.1086828896419</v>
+        <v>399.1913000155843</v>
       </c>
       <c r="AC15" t="n">
-        <v>252.4709419262332</v>
+        <v>361.0930426106046</v>
       </c>
       <c r="AD15" t="n">
-        <v>203990.413293293</v>
+        <v>291754.442857751</v>
       </c>
       <c r="AE15" t="n">
-        <v>279108.6828896419</v>
+        <v>399191.3000155843</v>
       </c>
       <c r="AF15" t="n">
         <v>9.229793900572135e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>252470.9419262332</v>
+        <v>361093.0426106046</v>
       </c>
     </row>
     <row r="16">
@@ -15393,28 +15393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>203.8406319024498</v>
+        <v>291.6046614669078</v>
       </c>
       <c r="AB16" t="n">
-        <v>278.9037453828017</v>
+        <v>398.986362508744</v>
       </c>
       <c r="AC16" t="n">
-        <v>252.2855633674141</v>
+        <v>360.9076640517855</v>
       </c>
       <c r="AD16" t="n">
-        <v>203840.6319024498</v>
+        <v>291604.6614669078</v>
       </c>
       <c r="AE16" t="n">
-        <v>278903.7453828017</v>
+        <v>398986.362508744</v>
       </c>
       <c r="AF16" t="n">
         <v>9.238284971317831e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH16" t="n">
-        <v>252285.5633674141</v>
+        <v>360907.6640517855</v>
       </c>
     </row>
   </sheetData>
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.3924934621682</v>
+        <v>328.5225935465274</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.3379061049071</v>
+        <v>449.4991058842946</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.8607445399156</v>
+        <v>406.5995420946541</v>
       </c>
       <c r="AD2" t="n">
-        <v>233392.4934621682</v>
+        <v>328522.5935465274</v>
       </c>
       <c r="AE2" t="n">
-        <v>319337.9061049071</v>
+        <v>449499.1058842946</v>
       </c>
       <c r="AF2" t="n">
         <v>9.957079567321293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>288860.7445399156</v>
+        <v>406599.5420946541</v>
       </c>
     </row>
     <row r="3">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.5794617731237</v>
+        <v>283.2571396759807</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.3369361885308</v>
+        <v>387.5649149277272</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.5363584190495</v>
+        <v>350.5762633977985</v>
       </c>
       <c r="AD3" t="n">
-        <v>197579.4617731237</v>
+        <v>283257.1396759807</v>
       </c>
       <c r="AE3" t="n">
-        <v>270336.9361885308</v>
+        <v>387564.9149277271</v>
       </c>
       <c r="AF3" t="n">
         <v>1.134184608912526e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>244536.3584190495</v>
+        <v>350576.2633977985</v>
       </c>
     </row>
     <row r="4">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.6861150464713</v>
+        <v>271.3296275305473</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.0639344997068</v>
+        <v>371.2451666056468</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.8164291721004</v>
+        <v>335.814048950667</v>
       </c>
       <c r="AD4" t="n">
-        <v>185686.1150464713</v>
+        <v>271329.6275305473</v>
       </c>
       <c r="AE4" t="n">
-        <v>254063.9344997068</v>
+        <v>371245.1666056468</v>
       </c>
       <c r="AF4" t="n">
         <v>1.184488153198741e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>229816.4291721004</v>
+        <v>335814.048950667</v>
       </c>
     </row>
     <row r="5">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.9671809968218</v>
+        <v>270.6106934808978</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.0802572158451</v>
+        <v>370.2614893217847</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.9266326676104</v>
+        <v>334.9242524461768</v>
       </c>
       <c r="AD5" t="n">
-        <v>184967.1809968218</v>
+        <v>270610.6934808978</v>
       </c>
       <c r="AE5" t="n">
-        <v>253080.2572158451</v>
+        <v>370261.4893217847</v>
       </c>
       <c r="AF5" t="n">
         <v>1.195357339269734e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>228926.6326676104</v>
+        <v>334924.2524461768</v>
       </c>
     </row>
     <row r="6">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.6642415575556</v>
+        <v>259.7548576635019</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.2975179934107</v>
+        <v>355.4080558307482</v>
       </c>
       <c r="AC6" t="n">
-        <v>227.3140355744743</v>
+        <v>321.4884098006</v>
       </c>
       <c r="AD6" t="n">
-        <v>183664.2415575556</v>
+        <v>259754.8576635019</v>
       </c>
       <c r="AE6" t="n">
-        <v>251297.5179934107</v>
+        <v>355408.0558307482</v>
       </c>
       <c r="AF6" t="n">
         <v>1.215784045343871e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>227314.0355744743</v>
+        <v>321488.4098006</v>
       </c>
     </row>
     <row r="7">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.7615059231656</v>
+        <v>258.8521220291119</v>
       </c>
       <c r="AB7" t="n">
-        <v>250.0623552725536</v>
+        <v>354.1728931098904</v>
       </c>
       <c r="AC7" t="n">
-        <v>226.1967550501336</v>
+        <v>320.3711292762591</v>
       </c>
       <c r="AD7" t="n">
-        <v>182761.5059231656</v>
+        <v>258852.1220291119</v>
       </c>
       <c r="AE7" t="n">
-        <v>250062.3552725536</v>
+        <v>354172.8931098904</v>
       </c>
       <c r="AF7" t="n">
         <v>1.22658419635866e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>226196.7550501337</v>
+        <v>320371.1292762591</v>
       </c>
     </row>
     <row r="8">
@@ -16326,28 +16326,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>182.9051145283959</v>
+        <v>258.9957306343422</v>
       </c>
       <c r="AB8" t="n">
-        <v>250.2588469017941</v>
+        <v>354.369384739131</v>
       </c>
       <c r="AC8" t="n">
-        <v>226.3744937940573</v>
+        <v>320.5488680201828</v>
       </c>
       <c r="AD8" t="n">
-        <v>182905.1145283959</v>
+        <v>258995.7306343422</v>
       </c>
       <c r="AE8" t="n">
-        <v>250258.8469017941</v>
+        <v>354369.384739131</v>
       </c>
       <c r="AF8" t="n">
         <v>1.224842978829997e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>226374.4937940573</v>
+        <v>320548.8680201828</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.7518261145075</v>
+        <v>288.2929066246268</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.7822373859042</v>
+        <v>394.455073429223</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.1756519232029</v>
+        <v>356.8088348423099</v>
       </c>
       <c r="AD2" t="n">
-        <v>203751.8261145075</v>
+        <v>288292.9066246268</v>
       </c>
       <c r="AE2" t="n">
-        <v>278782.2373859042</v>
+        <v>394455.073429223</v>
       </c>
       <c r="AF2" t="n">
         <v>1.243768845143684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>252175.6519232029</v>
+        <v>356808.8348423099</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.4565027405512</v>
+        <v>265.030737639594</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.9085482285386</v>
+        <v>362.6267475694348</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.3439429240025</v>
+        <v>328.0181597312438</v>
       </c>
       <c r="AD3" t="n">
-        <v>180456.5027405512</v>
+        <v>265030.737639594</v>
       </c>
       <c r="AE3" t="n">
-        <v>246908.5482285386</v>
+        <v>362626.7475694348</v>
       </c>
       <c r="AF3" t="n">
         <v>1.367795106892771e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>223343.9429240025</v>
+        <v>328018.1597312439</v>
       </c>
     </row>
     <row r="4">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.8946743765428</v>
+        <v>254.0348215180119</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.7715857578988</v>
+        <v>347.5816500261398</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.4109291523143</v>
+        <v>314.4089451816584</v>
       </c>
       <c r="AD4" t="n">
-        <v>178894.6743765428</v>
+        <v>254034.8215180119</v>
       </c>
       <c r="AE4" t="n">
-        <v>244771.5857578988</v>
+        <v>347581.6500261397</v>
       </c>
       <c r="AF4" t="n">
         <v>1.407968451591526e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>221410.9291523143</v>
+        <v>314408.9451816584</v>
       </c>
     </row>
     <row r="5">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.2915300180327</v>
+        <v>253.4316771595018</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.9463370377346</v>
+        <v>346.7564013059755</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.6644410117584</v>
+        <v>313.6624570411025</v>
       </c>
       <c r="AD5" t="n">
-        <v>178291.5300180327</v>
+        <v>253431.6771595018</v>
       </c>
       <c r="AE5" t="n">
-        <v>243946.3370377346</v>
+        <v>346756.4013059755</v>
       </c>
       <c r="AF5" t="n">
         <v>1.407837622201495e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>220664.4410117584</v>
+        <v>313662.4570411025</v>
       </c>
     </row>
     <row r="6">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.1649145963892</v>
+        <v>253.3050617378583</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.773096231964</v>
+        <v>346.5831605002049</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.5077340653454</v>
+        <v>313.5057500946895</v>
       </c>
       <c r="AD6" t="n">
-        <v>178164.9145963892</v>
+        <v>253305.0617378583</v>
       </c>
       <c r="AE6" t="n">
-        <v>243773.096231964</v>
+        <v>346583.1605002049</v>
       </c>
       <c r="AF6" t="n">
         <v>1.417440499429747e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>220507.7340653454</v>
+        <v>313505.7500946895</v>
       </c>
     </row>
   </sheetData>
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.7921995232051</v>
+        <v>271.444421055593</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.9455721946622</v>
+        <v>371.4022321709472</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.4230474098541</v>
+        <v>335.956124398858</v>
       </c>
       <c r="AD2" t="n">
-        <v>187792.1995232051</v>
+        <v>271444.4210555929</v>
       </c>
       <c r="AE2" t="n">
-        <v>256945.5721946622</v>
+        <v>371402.2321709472</v>
       </c>
       <c r="AF2" t="n">
         <v>1.477703593006359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>232423.0474098541</v>
+        <v>335956.124398858</v>
       </c>
     </row>
     <row r="3">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.4733144799982</v>
+        <v>249.8537340135111</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.090330207703</v>
+        <v>341.8609016459224</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.1764460616442</v>
+        <v>309.2341769977264</v>
       </c>
       <c r="AD3" t="n">
-        <v>175473.3144799981</v>
+        <v>249853.7340135111</v>
       </c>
       <c r="AE3" t="n">
-        <v>240090.330207703</v>
+        <v>341860.9016459224</v>
       </c>
       <c r="AF3" t="n">
         <v>1.580003964377081e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217176.4460616442</v>
+        <v>309234.1769977264</v>
       </c>
     </row>
     <row r="4">
@@ -31513,28 +31513,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.1262271960483</v>
+        <v>239.5739665372658</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.9329889045359</v>
+        <v>327.7956702735967</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.3702615424935</v>
+        <v>296.5113115668947</v>
       </c>
       <c r="AD4" t="n">
-        <v>165126.2271960483</v>
+        <v>239573.9665372658</v>
       </c>
       <c r="AE4" t="n">
-        <v>225932.9889045359</v>
+        <v>327795.6702735967</v>
       </c>
       <c r="AF4" t="n">
         <v>1.610525599496879e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>204370.2615424935</v>
+        <v>296511.3115668948</v>
       </c>
     </row>
   </sheetData>
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.8190311189205</v>
+        <v>240.6934349287267</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.6174020299324</v>
+        <v>329.3273763142525</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.7030394503097</v>
+        <v>297.8968337327939</v>
       </c>
       <c r="AD2" t="n">
-        <v>167819.0311189205</v>
+        <v>240693.4349287267</v>
       </c>
       <c r="AE2" t="n">
-        <v>229617.4020299324</v>
+        <v>329327.3763142526</v>
       </c>
       <c r="AF2" t="n">
         <v>2.105544423464484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>207703.0394503097</v>
+        <v>297896.8337327939</v>
       </c>
     </row>
     <row r="3">
@@ -31916,28 +31916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.9539503978361</v>
+        <v>240.8283542076423</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.8020045395632</v>
+        <v>329.5119788238833</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.8700237555126</v>
+        <v>298.0638180379969</v>
       </c>
       <c r="AD3" t="n">
-        <v>167953.9503978361</v>
+        <v>240828.3542076423</v>
       </c>
       <c r="AE3" t="n">
-        <v>229802.0045395632</v>
+        <v>329511.9788238833</v>
       </c>
       <c r="AF3" t="n">
         <v>2.106023757140332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>207870.0237555126</v>
+        <v>298063.8180379969</v>
       </c>
     </row>
   </sheetData>
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.3899497138939</v>
+        <v>345.1805714095053</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.5438903376102</v>
+        <v>472.2912860945377</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.2835611546234</v>
+        <v>427.2164686146575</v>
       </c>
       <c r="AD2" t="n">
-        <v>239389.9497138939</v>
+        <v>345180.5714095053</v>
       </c>
       <c r="AE2" t="n">
-        <v>327543.8903376102</v>
+        <v>472291.2860945377</v>
       </c>
       <c r="AF2" t="n">
         <v>8.757532078517816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>296283.5611546234</v>
+        <v>427216.4686146575</v>
       </c>
     </row>
     <row r="3">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.5432422303726</v>
+        <v>300.0598391526256</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.1792848824166</v>
+        <v>410.5551096344564</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.2941040095267</v>
+        <v>371.3723061886585</v>
       </c>
       <c r="AD3" t="n">
-        <v>213543.2422303726</v>
+        <v>300059.8391526256</v>
       </c>
       <c r="AE3" t="n">
-        <v>292179.2848824166</v>
+        <v>410555.1096344563</v>
       </c>
       <c r="AF3" t="n">
         <v>9.872449739723803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>264294.1040095267</v>
+        <v>371372.3061886585</v>
       </c>
     </row>
     <row r="4">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.896771390238</v>
+        <v>288.4806881201952</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.2440696729215</v>
+        <v>394.7120043557946</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.8797233744057</v>
+        <v>357.0412446418542</v>
       </c>
       <c r="AD4" t="n">
-        <v>201896.771390238</v>
+        <v>288480.6881201952</v>
       </c>
       <c r="AE4" t="n">
-        <v>276244.0696729215</v>
+        <v>394712.0043557946</v>
       </c>
       <c r="AF4" t="n">
         <v>1.024255786221403e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>249879.7233744057</v>
+        <v>357041.2446418542</v>
       </c>
     </row>
     <row r="5">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.5080283351604</v>
+        <v>286.9904598386323</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.3439301579457</v>
+        <v>392.6730082767285</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.160930507876</v>
+        <v>355.1968474868252</v>
       </c>
       <c r="AD5" t="n">
-        <v>200508.0283351604</v>
+        <v>286990.4598386323</v>
       </c>
       <c r="AE5" t="n">
-        <v>274343.9301579457</v>
+        <v>392673.0082767284</v>
       </c>
       <c r="AF5" t="n">
         <v>1.048252266220393e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>248160.930507876</v>
+        <v>355196.8474868252</v>
       </c>
     </row>
     <row r="6">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.3041489470386</v>
+        <v>276.234476095855</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.6967292677081</v>
+        <v>377.9561967993478</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.6709361587413</v>
+        <v>341.8845878416711</v>
       </c>
       <c r="AD6" t="n">
-        <v>199304.1489470386</v>
+        <v>276234.476095855</v>
       </c>
       <c r="AE6" t="n">
-        <v>272696.7292677081</v>
+        <v>377956.1967993478</v>
       </c>
       <c r="AF6" t="n">
         <v>1.065685903806667e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>246670.9361587412</v>
+        <v>341884.5878416711</v>
       </c>
     </row>
     <row r="7">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.0335221975778</v>
+        <v>275.583273508754</v>
       </c>
       <c r="AB7" t="n">
-        <v>258.6440046410295</v>
+        <v>377.0651926906457</v>
       </c>
       <c r="AC7" t="n">
-        <v>233.9593838473055</v>
+        <v>341.0786199145714</v>
       </c>
       <c r="AD7" t="n">
-        <v>189033.5221975778</v>
+        <v>275583.273508754</v>
       </c>
       <c r="AE7" t="n">
-        <v>258644.0046410295</v>
+        <v>377065.1926906457</v>
       </c>
       <c r="AF7" t="n">
         <v>1.071246573040772e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>233959.3838473055</v>
+        <v>341078.6199145714</v>
       </c>
     </row>
     <row r="8">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>188.0803117286804</v>
+        <v>274.6300630398566</v>
       </c>
       <c r="AB8" t="n">
-        <v>257.3397800248067</v>
+        <v>375.7609680744223</v>
       </c>
       <c r="AC8" t="n">
-        <v>232.7796325979639</v>
+        <v>339.8988686652296</v>
       </c>
       <c r="AD8" t="n">
-        <v>188080.3117286804</v>
+        <v>274630.0630398566</v>
       </c>
       <c r="AE8" t="n">
-        <v>257339.7800248067</v>
+        <v>375760.9680744223</v>
       </c>
       <c r="AF8" t="n">
         <v>1.082541899908046e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>232779.6325979639</v>
+        <v>339898.8686652296</v>
       </c>
     </row>
     <row r="9">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.9057120589009</v>
+        <v>274.4554633700771</v>
       </c>
       <c r="AB9" t="n">
-        <v>257.1008850538207</v>
+        <v>375.5220731034361</v>
       </c>
       <c r="AC9" t="n">
-        <v>232.5635374277175</v>
+        <v>339.6827734949832</v>
       </c>
       <c r="AD9" t="n">
-        <v>187905.7120589009</v>
+        <v>274455.4633700771</v>
       </c>
       <c r="AE9" t="n">
-        <v>257100.8850538207</v>
+        <v>375522.0731034361</v>
       </c>
       <c r="AF9" t="n">
         <v>1.079925114386114e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>232563.5374277175</v>
+        <v>339682.7734949832</v>
       </c>
     </row>
     <row r="10">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>187.0938179345992</v>
+        <v>273.6435692457754</v>
       </c>
       <c r="AB10" t="n">
-        <v>255.9900156947109</v>
+        <v>374.4112037443258</v>
       </c>
       <c r="AC10" t="n">
-        <v>231.5586878811258</v>
+        <v>338.6779239483914</v>
       </c>
       <c r="AD10" t="n">
-        <v>187093.8179345992</v>
+        <v>273643.5692457755</v>
       </c>
       <c r="AE10" t="n">
-        <v>255990.0156947109</v>
+        <v>374411.2037443258</v>
       </c>
       <c r="AF10" t="n">
         <v>1.08974501962932e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>231558.6878811258</v>
+        <v>338677.9239483914</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.0186885526826</v>
+        <v>400.7531488417164</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.6068996979959</v>
+        <v>548.3281382263738</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.5188026040276</v>
+        <v>495.9964702974234</v>
       </c>
       <c r="AD2" t="n">
-        <v>284018.6885526826</v>
+        <v>400753.1488417164</v>
       </c>
       <c r="AE2" t="n">
-        <v>388606.8996979959</v>
+        <v>548328.1382263738</v>
       </c>
       <c r="AF2" t="n">
         <v>6.997277229182534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351518.8026040276</v>
+        <v>495996.4702974234</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.5560298046536</v>
+        <v>329.9193177342557</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.1934196265241</v>
+        <v>451.4101655370669</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.8254862447323</v>
+        <v>408.3282128963549</v>
       </c>
       <c r="AD3" t="n">
-        <v>232556.0298046536</v>
+        <v>329919.3177342557</v>
       </c>
       <c r="AE3" t="n">
-        <v>318193.4196265241</v>
+        <v>451410.1655370669</v>
       </c>
       <c r="AF3" t="n">
         <v>8.335116841056726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>287825.4862447323</v>
+        <v>408328.2128963549</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.5881375895341</v>
+        <v>316.9172601003552</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.4501773947788</v>
+        <v>433.6201766720648</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.7756341487823</v>
+        <v>392.2360756002224</v>
       </c>
       <c r="AD4" t="n">
-        <v>219588.1375895341</v>
+        <v>316917.2601003552</v>
       </c>
       <c r="AE4" t="n">
-        <v>300450.1773947789</v>
+        <v>433620.1766720648</v>
       </c>
       <c r="AF4" t="n">
         <v>8.785695990209614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>271775.6341487823</v>
+        <v>392236.0756002224</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.1179034184882</v>
+        <v>305.6775427474258</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.438538139801</v>
+        <v>418.2414995284533</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.9559829209455</v>
+        <v>378.3251178190883</v>
       </c>
       <c r="AD5" t="n">
-        <v>218117.9034184882</v>
+        <v>305677.5427474258</v>
       </c>
       <c r="AE5" t="n">
-        <v>298438.538139801</v>
+        <v>418241.4995284533</v>
       </c>
       <c r="AF5" t="n">
         <v>8.990138811409341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>269955.9829209455</v>
+        <v>378325.1178190883</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.2337587136421</v>
+        <v>304.5287158056822</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.5463711800626</v>
+        <v>416.6696238240921</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.4851034745522</v>
+        <v>376.9032597258098</v>
       </c>
       <c r="AD6" t="n">
-        <v>207233.7587136421</v>
+        <v>304528.7158056822</v>
       </c>
       <c r="AE6" t="n">
-        <v>283546.3711800626</v>
+        <v>416669.6238240921</v>
       </c>
       <c r="AF6" t="n">
         <v>9.132701676884514e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>256485.1034745522</v>
+        <v>376903.2597258099</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>205.9951963975363</v>
+        <v>293.6221555341781</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.8517155776545</v>
+        <v>401.7467868971397</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.9521834243733</v>
+        <v>363.4046374108327</v>
       </c>
       <c r="AD7" t="n">
-        <v>205995.1963975363</v>
+        <v>293622.1555341781</v>
       </c>
       <c r="AE7" t="n">
-        <v>281851.7155776545</v>
+        <v>401746.7868971397</v>
       </c>
       <c r="AF7" t="n">
         <v>9.2965829417404e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>254952.1834243733</v>
+        <v>363404.6374108327</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.1256156475411</v>
+        <v>292.6510895576977</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.6619168323166</v>
+        <v>400.4181315877119</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.875937401397</v>
+        <v>362.2027870993572</v>
       </c>
       <c r="AD8" t="n">
-        <v>205125.6156475411</v>
+        <v>292651.0895576977</v>
       </c>
       <c r="AE8" t="n">
-        <v>280661.9168323166</v>
+        <v>400418.1315877119</v>
       </c>
       <c r="AF8" t="n">
         <v>9.394936855107477e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>253875.937401397</v>
+        <v>362202.7870993572</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>205.112871696407</v>
+        <v>292.6383456065636</v>
       </c>
       <c r="AB9" t="n">
-        <v>280.6444799961515</v>
+        <v>400.4006947515467</v>
       </c>
       <c r="AC9" t="n">
-        <v>253.8601647124027</v>
+        <v>362.1870144103629</v>
       </c>
       <c r="AD9" t="n">
-        <v>205112.871696407</v>
+        <v>292638.3456065636</v>
       </c>
       <c r="AE9" t="n">
-        <v>280644.4799961515</v>
+        <v>400400.6947515467</v>
       </c>
       <c r="AF9" t="n">
         <v>9.360789684418014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>253860.1647124027</v>
+        <v>362187.0144103629</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>204.4809453026657</v>
+        <v>292.0064192128223</v>
       </c>
       <c r="AB10" t="n">
-        <v>279.7798504256102</v>
+        <v>399.536065181005</v>
       </c>
       <c r="AC10" t="n">
-        <v>253.0780541745584</v>
+        <v>361.4049038725184</v>
       </c>
       <c r="AD10" t="n">
-        <v>204480.9453026657</v>
+        <v>292006.4192128223</v>
       </c>
       <c r="AE10" t="n">
-        <v>279779.8504256102</v>
+        <v>399536.065181005</v>
       </c>
       <c r="AF10" t="n">
         <v>9.4400262130897e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH10" t="n">
-        <v>253078.0541745584</v>
+        <v>361404.9038725185</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>204.2092843959681</v>
+        <v>291.7347583061247</v>
       </c>
       <c r="AB11" t="n">
-        <v>279.4081519882334</v>
+        <v>399.1643667436281</v>
       </c>
       <c r="AC11" t="n">
-        <v>252.7418301143627</v>
+        <v>361.0686798123227</v>
       </c>
       <c r="AD11" t="n">
-        <v>204209.2843959681</v>
+        <v>291734.7583061247</v>
       </c>
       <c r="AE11" t="n">
-        <v>279408.1519882334</v>
+        <v>399164.3667436281</v>
       </c>
       <c r="AF11" t="n">
         <v>9.431725243419334e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>252741.8301143627</v>
+        <v>361068.6798123227</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>203.3036106791768</v>
+        <v>290.8290845893334</v>
       </c>
       <c r="AB12" t="n">
-        <v>278.1689692534157</v>
+        <v>397.9251840088097</v>
       </c>
       <c r="AC12" t="n">
-        <v>251.6209132405517</v>
+        <v>359.9477629385116</v>
       </c>
       <c r="AD12" t="n">
-        <v>203303.6106791768</v>
+        <v>290829.0845893334</v>
       </c>
       <c r="AE12" t="n">
-        <v>278168.9692534157</v>
+        <v>397925.1840088097</v>
       </c>
       <c r="AF12" t="n">
         <v>9.524167860202969e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH12" t="n">
-        <v>251620.9132405517</v>
+        <v>359947.7629385116</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>203.1137758125615</v>
+        <v>290.639249722718</v>
       </c>
       <c r="AB13" t="n">
-        <v>277.9092288139895</v>
+        <v>397.6654435693833</v>
       </c>
       <c r="AC13" t="n">
-        <v>251.3859620641163</v>
+        <v>359.7128117620761</v>
       </c>
       <c r="AD13" t="n">
-        <v>203113.7758125615</v>
+        <v>290639.249722718</v>
       </c>
       <c r="AE13" t="n">
-        <v>277909.2288139895</v>
+        <v>397665.4435693834</v>
       </c>
       <c r="AF13" t="n">
         <v>9.515363801461669e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>251385.9620641163</v>
+        <v>359712.811762076</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>202.5629053596301</v>
+        <v>290.0883792697866</v>
       </c>
       <c r="AB14" t="n">
-        <v>277.1555035575999</v>
+        <v>396.9117183129933</v>
       </c>
       <c r="AC14" t="n">
-        <v>250.7041712883362</v>
+        <v>359.0310209862959</v>
       </c>
       <c r="AD14" t="n">
-        <v>202562.9053596301</v>
+        <v>290088.3792697866</v>
       </c>
       <c r="AE14" t="n">
-        <v>277155.5035575999</v>
+        <v>396911.7183129934</v>
       </c>
       <c r="AF14" t="n">
         <v>9.522973023659507e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH14" t="n">
-        <v>250704.1712883362</v>
+        <v>359031.0209862959</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5736635344804</v>
+        <v>236.7436985886722</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.1769469253907</v>
+        <v>323.9231728037234</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6863751487262</v>
+        <v>293.0083998204606</v>
       </c>
       <c r="AD2" t="n">
-        <v>164573.6635344804</v>
+        <v>236743.6985886722</v>
       </c>
       <c r="AE2" t="n">
-        <v>225176.9469253907</v>
+        <v>323923.1728037234</v>
       </c>
       <c r="AF2" t="n">
         <v>2.433320172402442e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>203686.3751487262</v>
+        <v>293008.3998204606</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.9200151789744</v>
+        <v>301.3169283653414</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.1170934345427</v>
+        <v>412.2751145541562</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.0967953945694</v>
+        <v>372.9281562528641</v>
       </c>
       <c r="AD2" t="n">
-        <v>206920.0151789743</v>
+        <v>301316.9283653414</v>
       </c>
       <c r="AE2" t="n">
-        <v>283117.0934345427</v>
+        <v>412275.1145541562</v>
       </c>
       <c r="AF2" t="n">
         <v>1.154511841786022e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>256096.7953945694</v>
+        <v>372928.1562528642</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.1450059252707</v>
+        <v>268.0988112511229</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.5870768942595</v>
+        <v>366.8246212385837</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.6713979767156</v>
+        <v>331.8153942291618</v>
       </c>
       <c r="AD3" t="n">
-        <v>183145.0059252707</v>
+        <v>268098.8112511229</v>
       </c>
       <c r="AE3" t="n">
-        <v>250587.0768942595</v>
+        <v>366824.6212385837</v>
       </c>
       <c r="AF3" t="n">
         <v>1.276201809707204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>226671.3979767156</v>
+        <v>331815.3942291618</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.553799805443</v>
+        <v>257.0313428818537</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.4099184820527</v>
+        <v>351.6816227533388</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.7020245077081</v>
+        <v>318.1176222661227</v>
       </c>
       <c r="AD4" t="n">
-        <v>181553.799805443</v>
+        <v>257031.3428818538</v>
       </c>
       <c r="AE4" t="n">
-        <v>248409.9184820527</v>
+        <v>351681.6227533388</v>
       </c>
       <c r="AF4" t="n">
         <v>1.314286586080049e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>224702.0245077081</v>
+        <v>318117.6222661227</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.4877432308932</v>
+        <v>255.9652863073039</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.9512928456576</v>
+        <v>350.2229971169437</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.3826080548561</v>
+        <v>316.7982058132708</v>
       </c>
       <c r="AD5" t="n">
-        <v>180487.7432308932</v>
+        <v>255965.2863073039</v>
       </c>
       <c r="AE5" t="n">
-        <v>246951.2928456576</v>
+        <v>350222.9971169437</v>
       </c>
       <c r="AF5" t="n">
         <v>1.329997907890117e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>223382.6080548561</v>
+        <v>316798.2058132708</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.8636066171601</v>
+        <v>255.3411496935709</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.0973215957844</v>
+        <v>349.3690258670704</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.6101386225143</v>
+        <v>316.0257363809289</v>
       </c>
       <c r="AD6" t="n">
-        <v>179863.6066171601</v>
+        <v>255341.1496935709</v>
       </c>
       <c r="AE6" t="n">
-        <v>246097.3215957844</v>
+        <v>349369.0258670704</v>
       </c>
       <c r="AF6" t="n">
         <v>1.342215976571425e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>222610.1386225143</v>
+        <v>316025.736380929</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.6521610483355</v>
+        <v>329.6882576511208</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.3789977000552</v>
+        <v>451.0940189376702</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.0431775687856</v>
+        <v>408.0422388846901</v>
       </c>
       <c r="AD2" t="n">
-        <v>224652.1610483355</v>
+        <v>329688.2576511208</v>
       </c>
       <c r="AE2" t="n">
-        <v>307378.9977000551</v>
+        <v>451094.0189376702</v>
       </c>
       <c r="AF2" t="n">
         <v>9.670845983463938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>278043.1775687856</v>
+        <v>408042.2388846901</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.0769610661334</v>
+        <v>295.5581097197961</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.7541249031175</v>
+        <v>404.3956448221733</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.6274154387716</v>
+        <v>365.8006920531965</v>
       </c>
       <c r="AD3" t="n">
-        <v>200076.9610661334</v>
+        <v>295558.1097197961</v>
       </c>
       <c r="AE3" t="n">
-        <v>273754.1249031175</v>
+        <v>404395.6448221733</v>
       </c>
       <c r="AF3" t="n">
         <v>1.073160924168032e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>247627.4154387716</v>
+        <v>365800.6920531965</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.6100496435674</v>
+        <v>283.5030959591843</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.3787878623135</v>
+        <v>387.9014431652316</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.5742158278255</v>
+        <v>350.880673852636</v>
       </c>
       <c r="AD4" t="n">
-        <v>197610.0496435674</v>
+        <v>283503.0959591843</v>
       </c>
       <c r="AE4" t="n">
-        <v>270378.7878623134</v>
+        <v>387901.4431652316</v>
       </c>
       <c r="AF4" t="n">
         <v>1.12316632470896e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244574.2158278255</v>
+        <v>350880.673852636</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.4277716042558</v>
+        <v>272.388137727577</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.0787017216451</v>
+        <v>372.693466955397</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.734348434612</v>
+        <v>337.1241255477392</v>
       </c>
       <c r="AD5" t="n">
-        <v>186427.7716042558</v>
+        <v>272388.1377275769</v>
       </c>
       <c r="AE5" t="n">
-        <v>255078.7017216451</v>
+        <v>372693.4669553969</v>
       </c>
       <c r="AF5" t="n">
         <v>1.151842407483615e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>230734.348434612</v>
+        <v>337124.1255477392</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.9586550631151</v>
+        <v>271.9190211864363</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.4368357740957</v>
+        <v>372.0516010078471</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.1537412722319</v>
+        <v>336.5435183853591</v>
       </c>
       <c r="AD6" t="n">
-        <v>185958.6550631151</v>
+        <v>271919.0211864363</v>
       </c>
       <c r="AE6" t="n">
-        <v>254436.8357740957</v>
+        <v>372051.6010078471</v>
       </c>
       <c r="AF6" t="n">
         <v>1.154234549719207e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>230153.7412722319</v>
+        <v>336543.518385359</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.21620954765</v>
+        <v>271.1765756709711</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.4209890654524</v>
+        <v>371.0357542992033</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.2348455477114</v>
+        <v>335.6246226608384</v>
       </c>
       <c r="AD7" t="n">
-        <v>185216.20954765</v>
+        <v>271176.5756709711</v>
       </c>
       <c r="AE7" t="n">
-        <v>253420.9890654524</v>
+        <v>371035.7542992033</v>
       </c>
       <c r="AF7" t="n">
         <v>1.160870337468714e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>229234.8455477114</v>
+        <v>335624.6226608384</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>184.6048402908629</v>
+        <v>260.9771040761383</v>
       </c>
       <c r="AB8" t="n">
-        <v>252.5844866766087</v>
+        <v>357.0803872942234</v>
       </c>
       <c r="AC8" t="n">
-        <v>228.4781777728202</v>
+        <v>323.0011362963332</v>
       </c>
       <c r="AD8" t="n">
-        <v>184604.840290863</v>
+        <v>260977.1040761383</v>
       </c>
       <c r="AE8" t="n">
-        <v>252584.4866766087</v>
+        <v>357080.3872942234</v>
       </c>
       <c r="AF8" t="n">
         <v>1.171372064063358e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>228478.1777728202</v>
+        <v>323001.1362963332</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>184.596816415219</v>
+        <v>260.9690802004943</v>
       </c>
       <c r="AB9" t="n">
-        <v>252.5735080559642</v>
+        <v>357.0694086735789</v>
       </c>
       <c r="AC9" t="n">
-        <v>228.4682469363214</v>
+        <v>322.9912054598344</v>
       </c>
       <c r="AD9" t="n">
-        <v>184596.816415219</v>
+        <v>260969.0802004943</v>
       </c>
       <c r="AE9" t="n">
-        <v>252573.5080559642</v>
+        <v>357069.4086735789</v>
       </c>
       <c r="AF9" t="n">
         <v>1.170757364974955e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>228468.2469363214</v>
+        <v>322991.2054598344</v>
       </c>
     </row>
   </sheetData>
